--- a/outputs-r202/g__Oribacterium.xlsx
+++ b/outputs-r202/g__Oribacterium.xlsx
@@ -2,7 +2,6 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
@@ -10,7 +9,7 @@
     <sheet name="g__Oribacterium_pred-t-p" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -20,10 +19,7 @@
   <fonts count="2">
     <font>
       <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
@@ -37,7 +33,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -54,18 +64,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -426,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,124 +446,119 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Row</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>1-s__Oribacterium asaccharolyticum</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>2-s__Oribacterium parvum</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>3-s__Oribacterium sinus</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>4-s__Oribacterium sp000160135</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>5-s__Oribacterium sp000424445</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>6-s__Oribacterium sp000513555</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>7-s__Oribacterium sp000702885</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>8-s__Oribacterium sp002007235</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>9-s__Oribacterium sp002371295</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>10-s__Oribacterium sp002396005</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>11-s__Oribacterium sp002431355</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>12-s__Oribacterium sp002449915</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>13-s__Oribacterium sp004554245</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>14-s__Oribacterium sp013394775</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>15-s__Oribacterium sp900107835</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t>16-s__Oribacterium sp900113415</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>17-s__Oribacterium sp900315665</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>18-s__Oribacterium sp900318695</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>19-s__Oribacterium sp900770445</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>20-s__Oribacterium sp900772695</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t>prediction</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>RUG117.fasta</t>
         </is>
@@ -617,17 +623,14 @@
       <c r="U2" t="n">
         <v>2.220445534866793e-14</v>
       </c>
-      <c r="V2" t="n">
-        <v>0.9999953667820365</v>
-      </c>
-      <c r="W2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>s__Oribacterium sp900315665</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>RUG686.fasta</t>
         </is>
@@ -692,17 +695,14 @@
       <c r="U3" t="n">
         <v>0.214691254916098</v>
       </c>
-      <c r="V3" t="n">
-        <v>0.2146912549168343</v>
-      </c>
-      <c r="W3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>s__Oribacterium sp000424445</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>RUG731.fasta</t>
         </is>
@@ -767,10 +767,7 @@
       <c r="U4" t="n">
         <v>0.2200099527002012</v>
       </c>
-      <c r="V4" t="n">
-        <v>0.220009952700879</v>
-      </c>
-      <c r="W4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>s__Oribacterium sp000424445</t>
         </is>

--- a/outputs-r202/g__Oribacterium.xlsx
+++ b/outputs-r202/g__Oribacterium.xlsx
@@ -2,6 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
@@ -9,7 +10,7 @@
     <sheet name="g__Oribacterium_pred-t-p" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="125725" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -19,7 +20,10 @@
   <fonts count="2">
     <font>
       <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
@@ -33,21 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -64,19 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -437,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,119 +435,124 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Row</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>1-s__Oribacterium asaccharolyticum</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>2-s__Oribacterium parvum</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>3-s__Oribacterium sinus</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>4-s__Oribacterium sp000160135</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>5-s__Oribacterium sp000424445</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>6-s__Oribacterium sp000513555</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>7-s__Oribacterium sp000702885</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>8-s__Oribacterium sp002007235</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>9-s__Oribacterium sp002371295</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>10-s__Oribacterium sp002396005</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>11-s__Oribacterium sp002431355</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>12-s__Oribacterium sp002449915</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>13-s__Oribacterium sp004554245</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>14-s__Oribacterium sp013394775</t>
         </is>
       </c>
-      <c r="P1" s="3" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>15-s__Oribacterium sp900107835</t>
         </is>
       </c>
-      <c r="Q1" s="3" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>16-s__Oribacterium sp900113415</t>
         </is>
       </c>
-      <c r="R1" s="3" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>17-s__Oribacterium sp900315665</t>
         </is>
       </c>
-      <c r="S1" s="3" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>18-s__Oribacterium sp900318695</t>
         </is>
       </c>
-      <c r="T1" s="3" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>19-s__Oribacterium sp900770445</t>
         </is>
       </c>
-      <c r="U1" s="3" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>20-s__Oribacterium sp900772695</t>
         </is>
       </c>
-      <c r="V1" s="3" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>prediction</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>RUG117.fasta</t>
         </is>
@@ -623,14 +617,17 @@
       <c r="U2" t="n">
         <v>2.220445534866793e-14</v>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="V2" t="n">
+        <v>0.9999953667820365</v>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>s__Oribacterium sp900315665</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>RUG686.fasta</t>
         </is>
@@ -695,14 +692,17 @@
       <c r="U3" t="n">
         <v>0.214691254916098</v>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="V3" t="n">
+        <v>0.2146912549168343</v>
+      </c>
+      <c r="W3" t="inlineStr">
         <is>
           <t>s__Oribacterium sp000424445</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>RUG731.fasta</t>
         </is>
@@ -767,7 +767,10 @@
       <c r="U4" t="n">
         <v>0.2200099527002012</v>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="V4" t="n">
+        <v>0.220009952700879</v>
+      </c>
+      <c r="W4" t="inlineStr">
         <is>
           <t>s__Oribacterium sp000424445</t>
         </is>

--- a/outputs-r202/g__Oribacterium.xlsx
+++ b/outputs-r202/g__Oribacterium.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -550,6 +550,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -625,6 +630,11 @@
           <t>s__Oribacterium sp900315665</t>
         </is>
       </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>s__Oribacterium sp900315665</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -700,6 +710,11 @@
           <t>s__Oribacterium sp000424445</t>
         </is>
       </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>s__Oribacterium sp000424445(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -773,6 +788,11 @@
       <c r="W4" t="inlineStr">
         <is>
           <t>s__Oribacterium sp000424445</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>s__Oribacterium sp000424445(reject)</t>
         </is>
       </c>
     </row>
